--- a/biology/Botanique/Lysimachia_ephemerum/Lysimachia_ephemerum.xlsx
+++ b/biology/Botanique/Lysimachia_ephemerum/Lysimachia_ephemerum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lysimachia ephemerum, la Lysimaque à feuille de saule, est une espèce de plantes à fleurs de la famille des Primulacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Lysimachia glauca Moench
 Lysimachia otani Asso
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante herbacée glauque, à corolle blanche à lilas pâle, de 40 à 110 cm de hauteur.
 </t>
@@ -574,7 +590,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Portugal, Espagne, France : Corbières, Pyrénées orientales, éteinte en Dordogne.
 </t>
@@ -605,7 +623,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Bords des torrents, tuffières, suintements, sur calcaire. Étages collinéen et montagnard.
 </t>
@@ -636,7 +656,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Floraison en juillet-août.
 </t>
@@ -667,7 +689,9 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Endémique, rare et très localisée. En régression à la suite des assèchements anthropiques.
 </t>
@@ -698,7 +722,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est inscrite dans la liste des espèces végétales protégées sur l'ensemble du territoire français métropolitain en Annexe 1 (espèces strictement protégées).
 </t>
